--- a/my doc/Car/齒比.xlsx
+++ b/my doc/Car/齒比.xlsx
@@ -431,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
       </c>
       <c r="H4">
         <f>H$2*$B4*$D4*1000/($B$13*60)</f>
-        <v>5386.1284038587955</v>
+        <v>13465.321009646988</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>3340.0321401513952</v>
+        <v>8350.0803503784864</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>2206.7786629499319</v>
+        <v>5516.9466573748296</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>1555.19499088115</v>
+        <v>3887.9874772028747</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1192.1810891359653</v>
+        <v>2980.4527228399129</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>965.29541473292682</v>
+        <v>2413.2385368323171</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
